--- a/data/trans_orig/P14B38_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B38_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82AE2288-9FEB-4A8F-9A46-3F3340F887C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E20A7E0-C1EE-4504-AEFA-4E9EB2C0850C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6A06C524-A4AB-425D-BD35-3950A4026450}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F1A716A8-7D29-40FC-A4EC-E73C316C85EF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,7 +74,7 @@
     <t>82,71%</t>
   </si>
   <si>
-    <t>30,21%</t>
+    <t>36,15%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -83,19 +83,19 @@
     <t>89,34%</t>
   </si>
   <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
   </si>
   <si>
     <t>87,25%</t>
   </si>
   <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,25 +107,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>69,79%</t>
+    <t>63,85%</t>
   </si>
   <si>
     <t>10,66%</t>
   </si>
   <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
   </si>
   <si>
     <t>12,75%</t>
   </si>
   <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,112 +137,112 @@
     <t>76,22%</t>
   </si>
   <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
   </si>
   <si>
     <t>77,23%</t>
   </si>
   <si>
-    <t>69,92%</t>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
   </si>
   <si>
     <t>83,96%</t>
   </si>
   <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
   </si>
   <si>
     <t>16,04%</t>
   </si>
   <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
+    <t>29,73%</t>
   </si>
   <si>
     <t>19,52%</t>
   </si>
   <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -251,55 +251,55 @@
     <t>80,81%</t>
   </si>
   <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
   </si>
   <si>
     <t>83,06%</t>
   </si>
   <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
   </si>
   <si>
     <t>82,38%</t>
   </si>
   <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
   </si>
   <si>
     <t>19,19%</t>
   </si>
   <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
   </si>
   <si>
     <t>16,94%</t>
   </si>
   <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
   </si>
   <si>
     <t>17,62%</t>
   </si>
   <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,109 +308,109 @@
     <t>83,14%</t>
   </si>
   <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
   </si>
   <si>
     <t>70,01%</t>
   </si>
   <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
   </si>
   <si>
     <t>74,27%</t>
   </si>
   <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
   </si>
   <si>
     <t>16,86%</t>
   </si>
   <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
   </si>
   <si>
     <t>29,99%</t>
   </si>
   <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
   </si>
   <si>
     <t>25,73%</t>
   </si>
   <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
   </si>
   <si>
     <t>81,97%</t>
   </si>
   <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
   </si>
   <si>
     <t>76,9%</t>
   </si>
   <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
   </si>
   <si>
     <t>78,61%</t>
   </si>
   <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
   </si>
   <si>
     <t>18,03%</t>
   </si>
   <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
   </si>
   <si>
     <t>23,1%</t>
   </si>
   <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
   </si>
   <si>
     <t>21,39%</t>
   </si>
   <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B06445B2-E767-49BB-9715-DF98A043743E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106E746A-D88F-4279-8187-F55ED8FFF053}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14B38_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B38_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E20A7E0-C1EE-4504-AEFA-4E9EB2C0850C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAA90B5C-8763-40E6-B8F2-8032233F16E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F1A716A8-7D29-40FC-A4EC-E73C316C85EF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C8DCC244-221D-4821-AD93-4D9C2FD24FE4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -131,7 +131,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>76,22%</t>
@@ -188,7 +188,7 @@
     <t>30,02%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>86,39%</t>
@@ -245,7 +245,7 @@
     <t>25,69%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>80,81%</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106E746A-D88F-4279-8187-F55ED8FFF053}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6637E3-D7E1-47B2-90AC-3E1D6847419D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
